--- a/output1.xlsx
+++ b/output1.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,13 +408,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>BIOF215</v>
+        <v>BIOF217</v>
       </c>
       <c r="B2" t="str">
-        <v>BIOPHYSICS</v>
+        <v>LAB FOR WAT, SANI &amp; SOLI WASTE</v>
       </c>
       <c r="C2" t="str">
-        <v>Sumit Biswas</v>
+        <v>Srikanth Mutnuri</v>
       </c>
       <c r="D2" t="str">
         <v>14-6-2021</v>
@@ -423,18 +423,70 @@
         <v>2:00pm-5:00pm</v>
       </c>
       <c r="F2" t="str">
-        <v xml:space="preserve">C303(21), C304(23), C304(23), C304(23), C304(23), C304(23), C304(23), </v>
+        <v xml:space="preserve">C303(20), </v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>BIOF215</v>
+      </c>
+      <c r="B3" t="str">
+        <v>BIOPHYSICS</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Sumit Biswas</v>
+      </c>
+      <c r="D3" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2:00pm-5:00pm</v>
+      </c>
+      <c r="F3" t="str">
+        <v xml:space="preserve">C301(20), </v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>BIOF216</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Water,Sanita &amp; Solid Waste Mgm</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Srikanth Mutnuri</v>
+      </c>
+      <c r="D4" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="E4" t="str">
+        <v>9:00am-12noon</v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve">C301(20), C302(40), </v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output1.xlsx
+++ b/output1.xlsx
@@ -408,13 +408,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>BIOF217</v>
+        <v>MATH F432</v>
       </c>
       <c r="B2" t="str">
-        <v>LAB FOR WAT, SANI &amp; SOLI WASTE</v>
+        <v>APPLIED STATISTICAL METHODS</v>
       </c>
       <c r="C2" t="str">
-        <v>Srikanth Mutnuri</v>
+        <v>Chandradew Sharma</v>
       </c>
       <c r="D2" t="str">
         <v>14-6-2021</v>
@@ -426,7 +426,7 @@
         <v xml:space="preserve">C303(20), </v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -434,13 +434,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>BIOF215</v>
+        <v>ECE EEE INSTR F341</v>
       </c>
       <c r="B3" t="str">
-        <v>BIOPHYSICS</v>
+        <v>ANALOG ELECTRONICS</v>
       </c>
       <c r="C3" t="str">
-        <v>Sumit Biswas</v>
+        <v>Ramesha C K</v>
       </c>
       <c r="D3" t="str">
         <v>14-6-2021</v>
@@ -452,7 +452,7 @@
         <v xml:space="preserve">C301(20), </v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -460,13 +460,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>BIOF216</v>
+        <v>ECON F342</v>
       </c>
       <c r="B4" t="str">
-        <v>Water,Sanita &amp; Solid Waste Mgm</v>
+        <v>APPLIED ECONOMETRICS</v>
       </c>
       <c r="C4" t="str">
-        <v>Srikanth Mutnuri</v>
+        <v>Aswini Kumar Mishra</v>
       </c>
       <c r="D4" t="str">
         <v>14-6-2021</v>
@@ -478,7 +478,7 @@
         <v xml:space="preserve">C301(20), C302(40), </v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>4</v>
